--- a/kadai4/day1/kadai4_day1_年収データ.xlsx
+++ b/kadai4/day1/kadai4_day1_年収データ.xlsx
@@ -5,17 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/tus_school/sophomore/zikken1/kadai4/day1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9965970-9635-EC48-8F0E-2630E53C8C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF2A95B-58FB-B24D-8C08-C212298E3454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="5780" windowWidth="27900" windowHeight="16940" xr2:uid="{0C4CD2D2-248A-6542-9D3A-E445DF47B764}"/>
+    <workbookView xWindow="2200" yWindow="5460" windowWidth="27900" windowHeight="16940" xr2:uid="{0C4CD2D2-248A-6542-9D3A-E445DF47B764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$42:$D$57</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$41</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$42:$E$57</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$D$41</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$D$42:$D$57</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$E$41</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$E$42:$E$57</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +49,22 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+  <si>
+    <t>データ区間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>度数</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ドスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,82 +101,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -150,26 +115,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -187,6 +137,2947 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>度数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12B1-BC45-B859-EEA8BDF35174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1173828592"/>
+        <c:axId val="1173830224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1173828592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>年収</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>万円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1173830224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1173830224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>人数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1173828592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>度数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E18-E440-BD52-1F095E25909B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="971829504"/>
+        <c:axId val="1169155520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="971829504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>年収</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>万円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1169155520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1169155520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+                  <a:t>人数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971829504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2624B7D8-4577-0C44-895B-1E8218A67BAA}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>年収</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>万</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFF64FC-DEC1-7B4E-AE3D-E0B482755A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="グラフ 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3F241E-396F-B242-A71B-CAA5ADFC9215}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6464300" y="5994400"/>
+              <a:ext cx="5130800" cy="4724400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図は、お使いのバージョンの Excel では利用できません。
+この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5BC9B1-90E5-0F45-86B5-473E1EAB7D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,817 +3377,1179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15C2D5F-4A07-E945-8EBA-B95244A20663}">
-  <dimension ref="A2:B102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="21" thickBot="1">
+    <row r="1" spans="1:5">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="21" thickBot="1">
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF($B$2:$B$101,"&gt;="&amp;D2)-COUNTIF($B$2:$B$101,"&gt;="&amp;D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="21" thickBot="1">
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E33" si="0">COUNTIF($B$2:$B$101,"&gt;="&amp;D3)-COUNTIF($B$2:$B$101,"&gt;="&amp;D4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="21" thickBot="1">
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="21" thickBot="1">
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="21" thickBot="1">
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="21" thickBot="1">
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="21" thickBot="1">
+      <c r="D8">
+        <v>350</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="21" thickBot="1">
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="21" thickBot="1">
+      <c r="D10">
+        <v>450</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="21" thickBot="1">
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="21" thickBot="1">
+      <c r="D12">
+        <v>550</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="21" thickBot="1">
+      <c r="D13">
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="21" thickBot="1">
+      <c r="D14">
+        <v>650</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="21" thickBot="1">
+      <c r="D15">
+        <v>700</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="21" thickBot="1">
+      <c r="D16">
+        <v>750</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="21" thickBot="1">
+      <c r="D17">
+        <v>800</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="21" thickBot="1">
+      <c r="D18">
+        <v>850</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="21" thickBot="1">
+      <c r="D19">
+        <v>900</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="21" thickBot="1">
-      <c r="A21" s="3">
+      <c r="D20">
+        <v>950</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>370</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="22" thickTop="1" thickBot="1">
-      <c r="A22" s="5">
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>370</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="21" thickBot="1">
-      <c r="A23" s="5">
+      <c r="D22">
+        <v>1050</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>370</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="21" thickBot="1">
-      <c r="A24" s="5">
+      <c r="D23">
+        <v>1100</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="21" thickBot="1">
-      <c r="A25" s="5">
+      <c r="D24">
+        <v>1150</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="21" thickBot="1">
-      <c r="A26" s="5">
+      <c r="D25">
+        <v>1200</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>390</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="21" thickBot="1">
-      <c r="A27" s="5">
+      <c r="D26">
+        <v>1250</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>390</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="21" thickBot="1">
-      <c r="A28" s="5">
+      <c r="D27">
+        <v>1300</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>390</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="21" thickBot="1">
-      <c r="A29" s="5">
+      <c r="D28">
+        <v>1350</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="21" thickBot="1">
-      <c r="A30" s="5">
+      <c r="D29">
+        <v>1400</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="21" thickBot="1">
-      <c r="A31" s="5">
+      <c r="D30">
+        <v>1450</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="21" thickBot="1">
-      <c r="A32" s="5">
+      <c r="D31">
+        <v>1500</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="21" thickBot="1">
-      <c r="A33" s="5">
+      <c r="D32">
+        <v>1550</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>410</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="21" thickBot="1">
-      <c r="A34" s="5">
+      <c r="D33">
+        <v>1600</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="21" thickBot="1">
-      <c r="A35" s="5">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="21" thickBot="1">
-      <c r="A36" s="5">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="21" thickBot="1">
-      <c r="A37" s="5">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="21" thickBot="1">
-      <c r="A38" s="5">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="21" thickBot="1">
-      <c r="A39" s="5">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21" thickBot="1">
-      <c r="A40" s="5">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21" thickBot="1">
-      <c r="A41" s="6">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="1">
         <v>410</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="22" thickTop="1" thickBot="1">
-      <c r="A42" s="5">
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="21" thickBot="1">
-      <c r="A43" s="5">
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <f>COUNTIF($B$2:$B$101,"&gt;="&amp;D42)-COUNTIF($B$2:$B$101,"&gt;="&amp;D43)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="21" thickBot="1">
-      <c r="A44" s="5">
+      <c r="D43">
+        <v>200</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E57" si="1">COUNTIF($B$2:$B$101,"&gt;="&amp;D43)-COUNTIF($B$2:$B$101,"&gt;="&amp;D44)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="21" thickBot="1">
-      <c r="A45" s="5">
+      <c r="D44">
+        <v>300</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="21" thickBot="1">
-      <c r="A46" s="5">
+      <c r="D45">
+        <v>400</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="21" thickBot="1">
-      <c r="A47" s="5">
+      <c r="D46">
+        <v>500</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="21" thickBot="1">
-      <c r="A48" s="5">
+      <c r="D47">
+        <v>600</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="21" thickBot="1">
-      <c r="A49" s="5">
+      <c r="D48">
+        <v>700</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="21" thickBot="1">
-      <c r="A50" s="5">
+      <c r="D49">
+        <v>800</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="21" thickBot="1">
-      <c r="A51" s="5">
+      <c r="D50">
+        <v>900</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>430</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="21" thickBot="1">
-      <c r="A52" s="5">
+      <c r="D51">
+        <v>1000</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>430</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="21" thickBot="1">
-      <c r="A53" s="5">
+      <c r="D52">
+        <v>1100</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>430</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="21" thickBot="1">
-      <c r="A54" s="5">
+      <c r="D53">
+        <v>1200</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="21" thickBot="1">
-      <c r="A55" s="5">
+      <c r="D54">
+        <v>1300</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="21" thickBot="1">
-      <c r="A56" s="5">
+      <c r="D55">
+        <v>1400</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="21" thickBot="1">
-      <c r="A57" s="5">
+      <c r="D56">
+        <v>1500</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="21" thickBot="1">
-      <c r="A58" s="5">
+      <c r="D57">
+        <v>1600</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>440</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="21" thickBot="1">
-      <c r="A59" s="5">
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="21" thickBot="1">
-      <c r="A60" s="5">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="21" thickBot="1">
-      <c r="A61" s="6">
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="22" thickTop="1" thickBot="1">
-      <c r="A62" s="5">
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>460</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="21" thickBot="1">
-      <c r="A63" s="5">
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>460</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="21" thickBot="1">
-      <c r="A64" s="5">
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="21" thickBot="1">
-      <c r="A65" s="5">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="21" thickBot="1">
-      <c r="A66" s="5">
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="21" thickBot="1">
-      <c r="A67" s="5">
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="21" thickBot="1">
-      <c r="A68" s="5">
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="21" thickBot="1">
-      <c r="A69" s="5">
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="21" thickBot="1">
-      <c r="A70" s="5">
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="21" thickBot="1">
-      <c r="A71" s="5">
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="21" thickBot="1">
-      <c r="A72" s="5">
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>490</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="21" thickBot="1">
-      <c r="A73" s="5">
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="21" thickBot="1">
-      <c r="A74" s="5">
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="21" thickBot="1">
-      <c r="A75" s="5">
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="21" thickBot="1">
-      <c r="A76" s="5">
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="21" thickBot="1">
-      <c r="A77" s="5">
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="21" thickBot="1">
-      <c r="A78" s="5">
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>510</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="21" thickBot="1">
-      <c r="A79" s="5">
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>510</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="21" thickBot="1">
-      <c r="A80" s="5">
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="21" thickBot="1">
-      <c r="A81" s="6">
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="1">
         <v>530</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="22" thickTop="1" thickBot="1">
-      <c r="A82" s="5">
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>530</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="21" thickBot="1">
-      <c r="A83" s="5">
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>540</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="21" thickBot="1">
-      <c r="A84" s="5">
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>540</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="21" thickBot="1">
-      <c r="A85" s="5">
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>540</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="21" thickBot="1">
-      <c r="A86" s="5">
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="21" thickBot="1">
-      <c r="A87" s="5">
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>580</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="21" thickBot="1">
-      <c r="A88" s="5">
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="21" thickBot="1">
-      <c r="A89" s="5">
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>610</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="21" thickBot="1">
-      <c r="A90" s="5">
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>640</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="21" thickBot="1">
-      <c r="A91" s="5">
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>670</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="21" thickBot="1">
-      <c r="A92" s="5">
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>680</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="21" thickBot="1">
-      <c r="A93" s="5">
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>690</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="21" thickBot="1">
-      <c r="A94" s="5">
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>690</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="21" thickBot="1">
-      <c r="A95" s="5">
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="21" thickBot="1">
-      <c r="A96" s="5">
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>850</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="21" thickBot="1">
-      <c r="A97" s="5">
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>870</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="21" thickBot="1">
-      <c r="A98" s="5">
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="21" thickBot="1">
-      <c r="A99" s="5">
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="21" thickBot="1">
-      <c r="A100" s="5">
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="21" thickBot="1">
-      <c r="A101" s="6">
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="1">
         <v>1550</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="21" thickTop="1"/>
+    <row r="102" spans="1:2">
+      <c r="B102">
+        <f>SUM(B2:B101)</f>
+        <v>47290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="B103">
+        <f>AVERAGE(B2:B101)</f>
+        <v>472.9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>